--- a/medicine/Enfance/Poly_(série_littéraire)/Poly_(série_littéraire).xlsx
+++ b/medicine/Enfance/Poly_(série_littéraire)/Poly_(série_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poly_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Poly_(série_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Poly est une série française de vingt-deux romans pour la jeunesse écrite par l'actrice et réalisatrice Cécile Aubry, adaptée des feuilletons télévisés dont elle a écrit les scénarios. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poly_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Poly_(série_littéraire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1961, Cécile Aubry écrit la première histoire des aventures du poney Poly pour en faire un feuilleton télévisé qu'elle tournera elle-même : Poly ou Poly et le mystère du château. Le feuilleton rencontre un certain succès ; huit autres suivront jusqu'en 1973, tous basés sur des scénarios de Cécile Aubry. 
-Les éditions Hachette cherchaient alors à rafraîchir la collection « Nouvelle Bibliothèque rose » destinée aux enfants de huit à onze ans — collection qui exploitait essentiellement les ouvrages d'Enid Blyton[1] (auteur du Club des Cinq et de Oui-Oui). Hachette va donc adapter les feuilletons télévisés Poly, et Cécile Aubry écrira des titres supplémentaires spécialement pour les éditions Hachette. Le premier volume paraît en 1964 sous le titre Poly.
+Les éditions Hachette cherchaient alors à rafraîchir la collection « Nouvelle Bibliothèque rose » destinée aux enfants de huit à onze ans — collection qui exploitait essentiellement les ouvrages d'Enid Blyton (auteur du Club des Cinq et de Oui-Oui). Hachette va donc adapter les feuilletons télévisés Poly, et Cécile Aubry écrira des titres supplémentaires spécialement pour les éditions Hachette. Le premier volume paraît en 1964 sous le titre Poly.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Poly_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Poly_(série_littéraire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,48 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Note : La date est celle de la première édition.
-Collection Bibliothèque rose
-1964 : Poly (no 151; illustré par Jean Reschofsky)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : La date est celle de la première édition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Poly_(série_littéraire)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poly_(s%C3%A9rie_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collection Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1964 : Poly (no 151; illustré par Jean Reschofsky)
 1964 : Les Vacances de Poly (no 167; illustré par Jean Reschofsky)
 1967 : Au secours Poly ! (no 251; illustré par Christiane Dufour)
 1968 : Poly et le diamant noir (no 291; illustré par Jacques Fromont)
@@ -570,13 +621,81 @@
 1984 : Poly fait scandale (illustré par Annie-Claude Martin)
 1985 : Poly se fâche (illustré par Annie-Claude Martin)
 1986 : Poly amoureux (illustré par Annie-Claude Martin)
-1988 : Poly, la rose et le mendiant (illustré par Annie-Claude Martin)
-Collection Idéal-Bibliothèque
-1966 : Poly et le secret des sept étoiles (no 297; illustré par Jean Reschofsky)
+1988 : Poly, la rose et le mendiant (illustré par Annie-Claude Martin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Poly_(série_littéraire)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poly_(s%C3%A9rie_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collection Idéal-Bibliothèque</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1966 : Poly et le secret des sept étoiles (no 297; illustré par Jean Reschofsky)
 1966 : Poly au Portugal (no 301; illustré par Jean Reschofsky)
-1981 : Poly au festival pop (illustré par Annie-Claude Martin)
-Collection Vermeille
-1973 : Poly en Tunisie (illustré par Annie-Claude Martin)
+1981 : Poly au festival pop (illustré par Annie-Claude Martin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Poly_(série_littéraire)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poly_(s%C3%A9rie_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collection Vermeille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1973 : Poly en Tunisie (illustré par Annie-Claude Martin)
 1975 : Poly (illustré par Annie-Claude Martin)
 1976 : Poly et le diamant noir (illustré par Annie-Claude Martin)
 1977 : Poly à Venise (illustré par Annie-Claude Martin)
@@ -587,34 +706,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Poly_(s%C3%A9rie_litt%C3%A9raire)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Poly_(série_littéraire)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Poly_(s%C3%A9rie_litt%C3%A9raire)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La série se positionne comme un polar pour les jeunes enfants, car le poney Poly montre des talents de détective. La série de livres reprend chaque fois un scénario très semblable, à Venise, à Paris ou au Portugal : Poly vient au secours des victimes d'injustices et attrape des voleurs. C'est un héros sympathique, populaire auprès des enfants[2]
-La série de livres autour de Poly est le premier exemple en France d'une série télévisée française qui suscite la création et la commercialisation de produits dérivés : livres, jouets, disques et objets divers pour les enfants[2].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La série se positionne comme un polar pour les jeunes enfants, car le poney Poly montre des talents de détective. La série de livres reprend chaque fois un scénario très semblable, à Venise, à Paris ou au Portugal : Poly vient au secours des victimes d'injustices et attrape des voleurs. C'est un héros sympathique, populaire auprès des enfants
+La série de livres autour de Poly est le premier exemple en France d'une série télévisée française qui suscite la création et la commercialisation de produits dérivés : livres, jouets, disques et objets divers pour les enfants.</t>
         </is>
       </c>
     </row>
